--- a/source_files/MasterEmailTemplate.xlsx
+++ b/source_files/MasterEmailTemplate.xlsx
@@ -464,9 +464,6 @@
     <t>Connecting People, Connecting Goals</t>
   </si>
   <si>
-    <t>Your weekly snapshot of the hottest developments brewing in TI's marketing organization – delivered fresh every Monday.</t>
-  </si>
-  <si>
     <t>Marketing Mondays</t>
   </si>
   <si>
@@ -713,6 +710,9 @@
       <t>Read by program
 Do not change</t>
     </r>
+  </si>
+  <si>
+    <t>Your weekly snapshot of the hottest developments brewing in TI's marketing organization &amp;ndash; delivered fresh every Monday.</t>
   </si>
 </sst>
 </file>
@@ -1474,6 +1474,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1491,12 +1497,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1798,8 +1798,8 @@
   </sheetPr>
   <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1817,32 +1817,32 @@
       <c r="B1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="99"/>
+      <c r="D1" s="101"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="100" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="101"/>
+        <v>163</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="103"/>
     </row>
     <row r="3" spans="1:4" ht="24.95" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
+        <v>172</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="94" t="s">
@@ -1861,10 +1861,10 @@
       <c r="B5" s="23">
         <v>41061</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="101"/>
+      <c r="D5" s="103"/>
     </row>
     <row r="6" spans="1:4" ht="24.95" customHeight="1" thickBot="1">
       <c r="A6" s="95" t="s">
@@ -1873,20 +1873,20 @@
       <c r="B6" s="24">
         <v>41065</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="97"/>
+      <c r="D6" s="99"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="51.75" customHeight="1" thickBot="1">
       <c r="A7" s="86" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="86" t="s">
         <v>200</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>201</v>
       </c>
       <c r="D7" s="87" t="s">
         <v>3</v>
@@ -2009,10 +2009,10 @@
         <v>142</v>
       </c>
       <c r="B16" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="86" t="s">
         <v>200</v>
-      </c>
-      <c r="C16" s="86" t="s">
-        <v>201</v>
       </c>
       <c r="D16" s="89" t="s">
         <v>3</v>
@@ -2057,7 +2057,7 @@
         <v>75</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" ht="24.95" customHeight="1">
@@ -2071,12 +2071,12 @@
         <v>77</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A21" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21" s="44">
         <v>40</v>
@@ -2085,12 +2085,12 @@
         <v>75</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A22" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B22" s="44">
         <v>40</v>
@@ -2099,12 +2099,12 @@
         <v>75</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="133.5" customHeight="1">
       <c r="A23" s="66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B23" s="62">
         <v>10000</v>
@@ -2113,12 +2113,12 @@
         <v>78</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" ht="133.5" customHeight="1">
       <c r="A24" s="66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="62">
         <v>10000</v>
@@ -2127,12 +2127,12 @@
         <v>78</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" ht="133.5" customHeight="1">
       <c r="A25" s="66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="62">
         <v>10000</v>
@@ -2141,12 +2141,12 @@
         <v>78</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" ht="133.5" customHeight="1">
       <c r="A26" s="66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B26" s="62">
         <v>10000</v>
@@ -2155,12 +2155,12 @@
         <v>78</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" ht="133.5" customHeight="1">
       <c r="A27" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B27" s="62">
         <v>10000</v>
@@ -2169,12 +2169,12 @@
         <v>78</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" ht="133.5" customHeight="1">
       <c r="A28" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" s="62">
         <v>10000</v>
@@ -2183,12 +2183,12 @@
         <v>78</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" ht="133.5" customHeight="1">
       <c r="A29" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B29" s="62">
         <v>10000</v>
@@ -2197,12 +2197,12 @@
         <v>78</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" ht="133.5" customHeight="1">
       <c r="A30" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B30" s="62">
         <v>10000</v>
@@ -2211,12 +2211,12 @@
         <v>78</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" ht="133.5" customHeight="1" thickBot="1">
       <c r="A31" s="66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" s="62">
         <v>10000</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="1" customFormat="1" ht="51.75" customHeight="1" thickBot="1">
@@ -2233,10 +2233,10 @@
         <v>79</v>
       </c>
       <c r="B32" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="86" t="s">
         <v>200</v>
-      </c>
-      <c r="C32" s="86" t="s">
-        <v>201</v>
       </c>
       <c r="D32" s="90" t="s">
         <v>3</v>
@@ -2253,7 +2253,7 @@
         <v>75</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2267,7 +2267,7 @@
         <v>75</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2281,7 +2281,7 @@
         <v>75</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2295,7 +2295,7 @@
         <v>77</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2337,7 +2337,7 @@
         <v>76</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="1" customFormat="1" ht="64.5" customHeight="1">
@@ -2351,7 +2351,7 @@
         <v>78</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2463,7 +2463,7 @@
         <v>77</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2476,8 +2476,8 @@
       <c r="C49" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="102" t="s">
-        <v>172</v>
+      <c r="D49" s="96" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2490,7 +2490,7 @@
       <c r="C50" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="103" t="s">
+      <c r="D50" s="97" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2513,10 +2513,10 @@
         <v>34</v>
       </c>
       <c r="B52" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="86" t="s">
         <v>200</v>
-      </c>
-      <c r="C52" s="86" t="s">
-        <v>201</v>
       </c>
       <c r="D52" s="89" t="s">
         <v>3</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="53" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A53" s="65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B53" s="57">
         <v>7</v>
@@ -2533,7 +2533,7 @@
         <v>75</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -2589,7 +2589,7 @@
         <v>77</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2603,7 +2603,7 @@
         <v>75</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2617,7 +2617,7 @@
         <v>75</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -2701,7 +2701,7 @@
         <v>77</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="1" customFormat="1" ht="51.75" customHeight="1" thickBot="1">
@@ -2709,10 +2709,10 @@
         <v>117</v>
       </c>
       <c r="B66" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="C66" s="86" t="s">
         <v>200</v>
-      </c>
-      <c r="C66" s="86" t="s">
-        <v>201</v>
       </c>
       <c r="D66" s="89" t="s">
         <v>3</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="67" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A67" s="70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B67" s="60">
         <v>7</v>
@@ -2729,7 +2729,7 @@
         <v>75</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -2799,7 +2799,7 @@
         <v>77</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2841,7 +2841,7 @@
         <v>77</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2883,7 +2883,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2925,7 +2925,7 @@
         <v>77</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -3009,7 +3009,7 @@
         <v>77</v>
       </c>
       <c r="D87" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="1" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
@@ -3017,10 +3017,10 @@
         <v>62</v>
       </c>
       <c r="B88" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="C88" s="86" t="s">
         <v>200</v>
-      </c>
-      <c r="C88" s="86" t="s">
-        <v>201</v>
       </c>
       <c r="D88" s="91" t="s">
         <v>3</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="89" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A89" s="65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B89" s="57">
         <v>7</v>
@@ -3037,7 +3037,7 @@
         <v>75</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3051,7 +3051,7 @@
         <v>75</v>
       </c>
       <c r="D90" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -3107,7 +3107,7 @@
         <v>77</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -3163,7 +3163,7 @@
         <v>77</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="1" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
@@ -3171,10 +3171,10 @@
         <v>69</v>
       </c>
       <c r="B99" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="86" t="s">
         <v>200</v>
-      </c>
-      <c r="C99" s="86" t="s">
-        <v>201</v>
       </c>
       <c r="D99" s="91" t="s">
         <v>3</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="100" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A100" s="65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B100" s="57">
         <v>7</v>
@@ -3191,7 +3191,7 @@
         <v>75</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3205,7 +3205,7 @@
         <v>75</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -3261,7 +3261,7 @@
         <v>77</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -3317,7 +3317,7 @@
         <v>77</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -3373,7 +3373,7 @@
         <v>77</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="65.25" customHeight="1" thickBot="1">
@@ -3381,10 +3381,10 @@
         <v>52</v>
       </c>
       <c r="B114" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" s="86" t="s">
         <v>200</v>
-      </c>
-      <c r="C114" s="86" t="s">
-        <v>201</v>
       </c>
       <c r="D114" s="91" t="s">
         <v>3</v>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="115" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A115" s="65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B115" s="57">
         <v>7</v>
@@ -3401,7 +3401,7 @@
         <v>75</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3415,7 +3415,7 @@
         <v>75</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -3471,7 +3471,7 @@
         <v>77</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -3527,7 +3527,7 @@
         <v>77</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -3583,7 +3583,7 @@
         <v>77</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" spans="1:4" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -3639,7 +3639,7 @@
         <v>77</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="1" customFormat="1" ht="57.75" customHeight="1" thickBot="1">
@@ -3650,7 +3650,7 @@
         <v>2</v>
       </c>
       <c r="C133" s="89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D133" s="91" t="s">
         <v>3</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="134" spans="1:4" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1">
       <c r="A134" s="85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B134" s="54">
         <v>100</v>
@@ -3667,7 +3667,7 @@
         <v>75</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="135" spans="1:4" s="1" customFormat="1" ht="57.75" customHeight="1" thickBot="1">
@@ -3678,7 +3678,7 @@
         <v>2</v>
       </c>
       <c r="C135" s="89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D135" s="86" t="s">
         <v>3</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="136" spans="1:4" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1">
       <c r="A136" s="85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B136" s="54">
         <v>100</v>
@@ -3695,7 +3695,7 @@
         <v>75</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="137" spans="1:4" s="1" customFormat="1" ht="57.75" customHeight="1" thickBot="1">
@@ -3706,7 +3706,7 @@
         <v>2</v>
       </c>
       <c r="C137" s="89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D137" s="86" t="s">
         <v>3</v>
@@ -3734,7 +3734,7 @@
         <v>2</v>
       </c>
       <c r="C139" s="89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D139" s="91" t="s">
         <v>3</v>
